--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -93,6 +93,9 @@
     <t>28/03/2022 10:40 AM</t>
   </si>
   <si>
+    <t>Observación</t>
+  </si>
+  <si>
     <t>No. Recibo sin PCC</t>
   </si>
   <si>
@@ -102,19 +105,13 @@
     <t>50000000210344998EDS3234</t>
   </si>
   <si>
-    <t>0000210344998</t>
-  </si>
-  <si>
-    <t>0000210344998EDS3234</t>
-  </si>
-  <si>
-    <t>Observación</t>
-  </si>
-  <si>
     <t>Existe en SalesForce</t>
   </si>
   <si>
     <t>134045454447815243322EDS3226</t>
+  </si>
+  <si>
+    <t>Validación</t>
   </si>
 </sst>
 </file>
@@ -178,11 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,224 +462,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16" style="3" customWidth="1"/>
-    <col min="10" max="11" width="38" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="29" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
+    <col min="11" max="12" width="38" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>10000</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>10000</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2" t="s">
-        <v>30</v>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>5000</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2" t="s">
-        <v>30</v>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Validación ventas redenciones R" sheetId="1" r:id="rId1"/>
+    <sheet name="Validación ventas redencion R" sheetId="2" r:id="rId1"/>
+    <sheet name="Validación ventas redenciones R" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>Validación</t>
+  </si>
+  <si>
+    <t>Existe en Satelite</t>
   </si>
 </sst>
 </file>
@@ -462,9 +466,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,38 +538,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10000</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -560,7 +562,9 @@
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
@@ -574,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
@@ -594,7 +598,9 @@
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
@@ -608,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
@@ -628,7 +634,9 @@
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
@@ -642,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
@@ -657,35 +665,73 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Validación ventas redencion R" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Existe en Satelite</t>
+  </si>
+  <si>
+    <t>No Existe en Satelite</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -481,10 +484,10 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="29" style="3" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" customWidth="1"/>
@@ -496,10 +499,10 @@
     <col min="9" max="9" width="29" style="3" customWidth="1"/>
     <col min="10" max="10" width="16" style="3" customWidth="1"/>
     <col min="11" max="12" width="38" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -537,7 +540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
@@ -555,7 +558,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -563,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -591,7 +594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -599,7 +602,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -627,7 +630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -635,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -663,7 +666,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -671,7 +674,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -699,7 +702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -707,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>134045454447815243322EDS3226</t>
-  </si>
-  <si>
-    <t>Validación</t>
-  </si>
-  <si>
-    <t>Existe en Satelite</t>
-  </si>
-  <si>
-    <t>No Existe en Satelite</t>
   </si>
 </sst>
 </file>
@@ -182,13 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
@@ -490,64 +479,58 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="29" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="12" width="38" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="3"/>
+    <col min="3" max="3" width="22" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="11" width="38" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -555,186 +538,170 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
         <v>10000</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
         <v>10000</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
         <v>10000</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1">
         <v>10000</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
         <v>5000</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot.11\Documents\UiPath\Conciliacion EDS\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPathProject\SBTT0044-Conciliacion-Terpel\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="30">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -462,7 +462,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,13 +470,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A27" sqref="A27:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
@@ -487,10 +487,10 @@
     <col min="8" max="8" width="29" style="3" customWidth="1"/>
     <col min="9" max="9" width="16" style="3" customWidth="1"/>
     <col min="10" max="11" width="38" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="3"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -525,22 +525,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10000</v>
+      </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -560,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
@@ -573,7 +591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -593,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
@@ -606,7 +624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
@@ -639,69 +657,861 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot.11\Documents\UiPath\Conciliacion EDS\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPathProject\SBTT0044-Conciliacion-Terpel\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="55">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -110,16 +110,98 @@
   </si>
   <si>
     <t>134045454447815243322EDS3226</t>
+  </si>
+  <si>
+    <t>EDS3218</t>
+  </si>
+  <si>
+    <t>EDS3130</t>
+  </si>
+  <si>
+    <t>EDS3122</t>
+  </si>
+  <si>
+    <t>EDS3114</t>
+  </si>
+  <si>
+    <t>EDS3106</t>
+  </si>
+  <si>
+    <t>EDS3098</t>
+  </si>
+  <si>
+    <t>EDS3090</t>
+  </si>
+  <si>
+    <t>EDS3082</t>
+  </si>
+  <si>
+    <t>EDS3074</t>
+  </si>
+  <si>
+    <t>EDS3066</t>
+  </si>
+  <si>
+    <t>EDS3058</t>
+  </si>
+  <si>
+    <t>EDS3050</t>
+  </si>
+  <si>
+    <t>EDS3042</t>
+  </si>
+  <si>
+    <t>EDS3034</t>
+  </si>
+  <si>
+    <t>EDS3026</t>
+  </si>
+  <si>
+    <t>EDS2222</t>
+  </si>
+  <si>
+    <t>EDS2223</t>
+  </si>
+  <si>
+    <t>EDS2224</t>
+  </si>
+  <si>
+    <t>EDS2225</t>
+  </si>
+  <si>
+    <t>EDS2226</t>
+  </si>
+  <si>
+    <t>EDS2227</t>
+  </si>
+  <si>
+    <t>EDS2228</t>
+  </si>
+  <si>
+    <t>EDS2229</t>
+  </si>
+  <si>
+    <t>EDS2230</t>
+  </si>
+  <si>
+    <t>EDS2231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,6 +215,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,17 +259,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,7 +556,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,13 +564,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29" style="3" customWidth="1"/>
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
@@ -487,10 +581,10 @@
     <col min="8" max="8" width="29" style="3" customWidth="1"/>
     <col min="9" max="9" width="16" style="3" customWidth="1"/>
     <col min="10" max="11" width="38" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="3"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -525,7 +619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
@@ -540,7 +634,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -573,7 +667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -606,7 +700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -639,7 +733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,7 +766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -702,6 +796,831 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -192,14 +192,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,13 +498,13 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="29" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29" style="7" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" customWidth="1"/>
     <col min="5" max="5" width="25" style="3" customWidth="1"/>
     <col min="6" max="6" width="21" style="3" customWidth="1"/>
@@ -522,7 +523,7 @@
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -572,8 +573,8 @@
       <c r="L2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>5.0000000210344896E+16</v>
+      <c r="A3" s="5">
+        <v>5E+16</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -596,7 +597,7 @@
       <c r="H3">
         <v>74901</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>44776.442361111112</v>
       </c>
       <c r="J3">
@@ -608,8 +609,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5.0000000210344896E+16</v>
+      <c r="A4" s="5">
+        <v>5E+16</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -632,7 +633,7 @@
       <c r="H4">
         <v>544416</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>44776.442361111112</v>
       </c>
       <c r="J4">
@@ -644,8 +645,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5.0000000210344896E+16</v>
+      <c r="A5" s="5">
+        <v>5E+16</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -668,7 +669,7 @@
       <c r="H5">
         <v>924915</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>44776.442361111112</v>
       </c>
       <c r="J5">
@@ -680,8 +681,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5.0000000210344896E+16</v>
+      <c r="A6" s="5">
+        <v>5E+16</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -704,7 +705,7 @@
       <c r="H6">
         <v>30402</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>44776.442361111112</v>
       </c>
       <c r="J6">
@@ -716,8 +717,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>1.34045454447815E+20</v>
+      <c r="A7" s="5">
+        <v>1.34E+20</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -776,7 +777,7 @@
       <c r="H8">
         <v>684619</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>44716.595833333333</v>
       </c>
       <c r="J8">
@@ -812,7 +813,7 @@
       <c r="H9">
         <v>371514</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>44716.595833333333</v>
       </c>
       <c r="J9">
@@ -848,7 +849,7 @@
       <c r="H10">
         <v>763613</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>44716.595833333333</v>
       </c>
       <c r="J10">
@@ -884,7 +885,7 @@
       <c r="H11">
         <v>151011</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>44716.595833333333</v>
       </c>
       <c r="J11">

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot.11\Documents\UiPath\Conciliacion EDS\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPathProject\SBTT0044-Conciliacion-Terpel\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="40">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -109,10 +109,37 @@
     <t>Validación</t>
   </si>
   <si>
-    <t>Existe en Satelite</t>
-  </si>
-  <si>
     <t>No Existe en Satelite</t>
+  </si>
+  <si>
+    <t>EDS2222</t>
+  </si>
+  <si>
+    <t>EDS2223</t>
+  </si>
+  <si>
+    <t>EDS2224</t>
+  </si>
+  <si>
+    <t>EDS2225</t>
+  </si>
+  <si>
+    <t>EDS2226</t>
+  </si>
+  <si>
+    <t>EDS2227</t>
+  </si>
+  <si>
+    <t>EDS2228</t>
+  </si>
+  <si>
+    <t>EDS2229</t>
+  </si>
+  <si>
+    <t>EDS2230</t>
+  </si>
+  <si>
+    <t>EDS2231</t>
   </si>
 </sst>
 </file>
@@ -486,7 +513,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -494,13 +521,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E13" sqref="E13:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="29" style="3" customWidth="1"/>
     <col min="3" max="3" width="29" style="5" customWidth="1"/>
@@ -512,10 +539,10 @@
     <col min="9" max="9" width="29" style="3" customWidth="1"/>
     <col min="10" max="10" width="16" style="3" customWidth="1"/>
     <col min="11" max="12" width="38" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="3"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -553,25 +580,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2"/>
-      <c r="B2">
-        <v>1</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>74901</v>
+      </c>
+      <c r="I2" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
       <c r="K2"/>
-      <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.0000000210344896E+16</v>
       </c>
@@ -579,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -594,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <v>74901</v>
+        <v>544416</v>
       </c>
       <c r="I3" s="6">
         <v>44776.442361111112</v>
@@ -607,7 +652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.0000000210344896E+16</v>
       </c>
@@ -615,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -630,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="H4">
-        <v>544416</v>
+        <v>924915</v>
       </c>
       <c r="I4" s="6">
         <v>44776.442361111112</v>
@@ -643,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.0000000210344896E+16</v>
       </c>
@@ -651,7 +696,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -666,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="H5">
-        <v>924915</v>
+        <v>30402</v>
       </c>
       <c r="I5" s="6">
         <v>44776.442361111112</v>
@@ -679,51 +724,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.0000000210344896E+16</v>
+        <v>1.34045454447815E+20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6">
-        <v>30402</v>
-      </c>
-      <c r="I6" s="6">
-        <v>44776.442361111112</v>
+        <v>743316</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.34045454447815E+20</v>
+        <v>20006335700</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -732,26 +777,26 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7">
-        <v>743316</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
+        <v>684619</v>
+      </c>
+      <c r="I7" s="6">
+        <v>44716.595833333333</v>
       </c>
       <c r="J7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K7"/>
       <c r="L7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20006335700</v>
       </c>
@@ -759,7 +804,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -774,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="H8">
-        <v>684619</v>
+        <v>371514</v>
       </c>
       <c r="I8" s="6">
         <v>44716.595833333333</v>
@@ -787,15 +832,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20006335700</v>
+        <v>20006335701</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -804,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
       </c>
       <c r="H9">
-        <v>371514</v>
+        <v>763613</v>
       </c>
       <c r="I9" s="6">
         <v>44716.595833333333</v>
@@ -823,15 +868,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20006335701</v>
+        <v>20006335702</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -840,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10">
-        <v>763613</v>
+        <v>151011</v>
       </c>
       <c r="I10" s="6">
         <v>44716.595833333333</v>
@@ -859,33 +904,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20006335702</v>
+        <v>5.0000000210344896E+16</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
       </c>
       <c r="H11">
-        <v>151011</v>
+        <v>74901</v>
       </c>
       <c r="I11" s="6">
-        <v>44716.595833333333</v>
+        <v>44776.442361111112</v>
       </c>
       <c r="J11">
         <v>10000</v>
@@ -895,313 +940,941 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>544416</v>
+      </c>
+      <c r="I12" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J12">
+        <v>10000</v>
+      </c>
       <c r="K12"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="L12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>924915</v>
+      </c>
+      <c r="I13" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J13">
+        <v>10000</v>
+      </c>
       <c r="K13"/>
-      <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>30402</v>
+      </c>
+      <c r="I14" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J14">
+        <v>10000</v>
+      </c>
       <c r="K14"/>
-      <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.34045454447815E+20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>743316</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>5000</v>
+      </c>
       <c r="K15"/>
-      <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20006335700</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>684619</v>
+      </c>
+      <c r="I16" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J16">
+        <v>10000</v>
+      </c>
       <c r="K16"/>
-      <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20006335700</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>371514</v>
+      </c>
+      <c r="I17" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J17">
+        <v>10000</v>
+      </c>
       <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="L17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>20006335701</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>763613</v>
+      </c>
+      <c r="I18" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J18">
+        <v>10000</v>
+      </c>
       <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20006335702</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>151011</v>
+      </c>
+      <c r="I19" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J19">
+        <v>10000</v>
+      </c>
       <c r="K19"/>
-      <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>74901</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J20">
+        <v>10000</v>
+      </c>
       <c r="K20"/>
-      <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>544416</v>
+      </c>
+      <c r="I21" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J21">
+        <v>10000</v>
+      </c>
       <c r="K21"/>
-      <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>924915</v>
+      </c>
+      <c r="I22" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J22">
+        <v>10000</v>
+      </c>
       <c r="K22"/>
-      <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>30402</v>
+      </c>
+      <c r="I23" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J23">
+        <v>10000</v>
+      </c>
       <c r="K23"/>
-      <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.34045454447815E+20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>743316</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24">
+        <v>5000</v>
+      </c>
       <c r="K24"/>
-      <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20006335700</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>684619</v>
+      </c>
+      <c r="I25" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J25">
+        <v>10000</v>
+      </c>
       <c r="K25"/>
-      <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20006335700</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>371514</v>
+      </c>
+      <c r="I26" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J26">
+        <v>10000</v>
+      </c>
       <c r="K26"/>
-      <c r="L26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20006335701</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>763613</v>
+      </c>
+      <c r="I27" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J27">
+        <v>10000</v>
+      </c>
       <c r="K27"/>
-      <c r="L27"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20006335702</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>151011</v>
+      </c>
+      <c r="I28" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J28">
+        <v>10000</v>
+      </c>
       <c r="K28"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>74901</v>
+      </c>
+      <c r="I29" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J29">
+        <v>10000</v>
+      </c>
       <c r="K29"/>
-      <c r="L29"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>544416</v>
+      </c>
+      <c r="I30" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J30">
+        <v>10000</v>
+      </c>
       <c r="K30"/>
-      <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>924915</v>
+      </c>
+      <c r="I31" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J31">
+        <v>10000</v>
+      </c>
       <c r="K31"/>
-      <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5.0000000210344896E+16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>30402</v>
+      </c>
+      <c r="I32" s="6">
+        <v>44776.442361111112</v>
+      </c>
+      <c r="J32">
+        <v>10000</v>
+      </c>
       <c r="K32"/>
-      <c r="L32"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.34045454447815E+20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>743316</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33">
+        <v>5000</v>
+      </c>
       <c r="K33"/>
-      <c r="L33"/>
+      <c r="L33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20006335700</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>684619</v>
+      </c>
+      <c r="I34" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J34">
+        <v>10000</v>
+      </c>
+      <c r="K34"/>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20006335700</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>371514</v>
+      </c>
+      <c r="I35" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J35">
+        <v>10000</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20006335701</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>763613</v>
+      </c>
+      <c r="I36" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J36">
+        <v>10000</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20006335702</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>151011</v>
+      </c>
+      <c r="I37" s="6">
+        <v>44716.595833333333</v>
+      </c>
+      <c r="J37">
+        <v>10000</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
+++ b/Data/Temp/Reporte fidelizaciones Salesforce.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="41">
   <si>
     <t>Venta: Nombre PDV</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>EDS2231</t>
+  </si>
+  <si>
+    <t>5215EDS3225</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1236,7 @@
         <v>5.0000000210344896E+16</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
